--- a/iris0.xlsx
+++ b/iris0.xlsx
@@ -473,10 +473,8 @@
       <c r="D2" t="n">
         <v>0.2</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -492,10 +490,8 @@
       <c r="D3" t="n">
         <v>0.2</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -511,10 +507,8 @@
       <c r="D4" t="n">
         <v>0.2</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -530,10 +524,8 @@
       <c r="D5" t="n">
         <v>0.2</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -549,10 +541,8 @@
       <c r="D6" t="n">
         <v>0.4</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -568,10 +558,8 @@
       <c r="D7" t="n">
         <v>0.3</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -587,10 +575,8 @@
       <c r="D8" t="n">
         <v>0.2</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +592,8 @@
       <c r="D9" t="n">
         <v>0.2</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -625,10 +609,8 @@
       <c r="D10" t="n">
         <v>0.2</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -644,10 +626,8 @@
       <c r="D11" t="n">
         <v>0.2</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -663,10 +643,8 @@
       <c r="D12" t="n">
         <v>0.1</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -682,10 +660,8 @@
       <c r="D13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -701,10 +677,8 @@
       <c r="D14" t="n">
         <v>0.4</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -720,10 +694,8 @@
       <c r="D15" t="n">
         <v>0.4</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -739,10 +711,8 @@
       <c r="D16" t="n">
         <v>0.3</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -758,10 +728,8 @@
       <c r="D17" t="n">
         <v>0.3</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -777,10 +745,8 @@
       <c r="D18" t="n">
         <v>0.3</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -796,10 +762,8 @@
       <c r="D19" t="n">
         <v>0.2</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -815,10 +779,8 @@
       <c r="D20" t="n">
         <v>0.4</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -834,10 +796,8 @@
       <c r="D21" t="n">
         <v>0.2</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -853,10 +813,8 @@
       <c r="D22" t="n">
         <v>0.5</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -872,10 +830,8 @@
       <c r="D23" t="n">
         <v>0.2</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -891,10 +847,8 @@
       <c r="D24" t="n">
         <v>0.2</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -910,10 +864,8 @@
       <c r="D25" t="n">
         <v>0.4</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -929,10 +881,8 @@
       <c r="D26" t="n">
         <v>0.2</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -948,10 +898,8 @@
       <c r="D27" t="n">
         <v>0.2</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -967,10 +915,8 @@
       <c r="D28" t="n">
         <v>0.2</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -986,10 +932,8 @@
       <c r="D29" t="n">
         <v>0.2</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1005,10 +949,8 @@
       <c r="D30" t="n">
         <v>0.4</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1024,10 +966,8 @@
       <c r="D31" t="n">
         <v>0.1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1043,10 +983,8 @@
       <c r="D32" t="n">
         <v>0.2</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1062,10 +1000,8 @@
       <c r="D33" t="n">
         <v>0.1</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1081,10 +1017,8 @@
       <c r="D34" t="n">
         <v>0.2</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1100,10 +1034,8 @@
       <c r="D35" t="n">
         <v>0.2</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1119,10 +1051,8 @@
       <c r="D36" t="n">
         <v>0.1</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1138,10 +1068,8 @@
       <c r="D37" t="n">
         <v>0.2</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1157,10 +1085,8 @@
       <c r="D38" t="n">
         <v>0.2</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1176,10 +1102,8 @@
       <c r="D39" t="n">
         <v>0.3</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1195,10 +1119,8 @@
       <c r="D40" t="n">
         <v>0.3</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1214,10 +1136,8 @@
       <c r="D41" t="n">
         <v>0.4</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1233,10 +1153,8 @@
       <c r="D42" t="n">
         <v>0.3</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1252,10 +1170,8 @@
       <c r="D43" t="n">
         <v>0.2</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1271,10 +1187,8 @@
       <c r="D44" t="n">
         <v>0.2</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1290,10 +1204,8 @@
       <c r="D45" t="n">
         <v>0.2</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1309,10 +1221,8 @@
       <c r="D46" t="n">
         <v>0.2</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1328,10 +1238,8 @@
       <c r="D47" t="n">
         <v>0.2</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1347,10 +1255,8 @@
       <c r="D48" t="n">
         <v>0.1</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1366,10 +1272,8 @@
       <c r="D49" t="n">
         <v>0.2</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1385,10 +1289,8 @@
       <c r="D50" t="n">
         <v>0.2</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1404,10 +1306,8 @@
       <c r="D51" t="n">
         <v>0.6</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="E51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1423,10 +1323,8 @@
       <c r="D52" t="n">
         <v>1.5</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1442,10 +1340,8 @@
       <c r="D53" t="n">
         <v>1.3</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1461,10 +1357,8 @@
       <c r="D54" t="n">
         <v>1.4</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1480,10 +1374,8 @@
       <c r="D55" t="n">
         <v>1.5</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1499,10 +1391,8 @@
       <c r="D56" t="n">
         <v>1.6</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1518,10 +1408,8 @@
       <c r="D57" t="n">
         <v>1.4</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1537,10 +1425,8 @@
       <c r="D58" t="n">
         <v>1.5</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1556,10 +1442,8 @@
       <c r="D59" t="n">
         <v>1.5</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1575,10 +1459,8 @@
       <c r="D60" t="n">
         <v>1.3</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1594,10 +1476,8 @@
       <c r="D61" t="n">
         <v>1.3</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1613,10 +1493,8 @@
       <c r="D62" t="n">
         <v>1.6</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1632,10 +1510,8 @@
       <c r="D63" t="n">
         <v>1</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1651,10 +1527,8 @@
       <c r="D64" t="n">
         <v>1.4</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1670,10 +1544,8 @@
       <c r="D65" t="n">
         <v>1</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1689,10 +1561,8 @@
       <c r="D66" t="n">
         <v>1.5</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1708,10 +1578,8 @@
       <c r="D67" t="n">
         <v>1</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1727,10 +1595,8 @@
       <c r="D68" t="n">
         <v>1.4</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1746,10 +1612,8 @@
       <c r="D69" t="n">
         <v>1.3</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1765,10 +1629,8 @@
       <c r="D70" t="n">
         <v>1.4</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1784,10 +1646,8 @@
       <c r="D71" t="n">
         <v>1.5</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1803,10 +1663,8 @@
       <c r="D72" t="n">
         <v>1</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1822,10 +1680,8 @@
       <c r="D73" t="n">
         <v>1.5</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1841,10 +1697,8 @@
       <c r="D74" t="n">
         <v>1.1</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1860,10 +1714,8 @@
       <c r="D75" t="n">
         <v>1.8</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1879,10 +1731,8 @@
       <c r="D76" t="n">
         <v>1.3</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1898,10 +1748,8 @@
       <c r="D77" t="n">
         <v>1.5</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1917,10 +1765,8 @@
       <c r="D78" t="n">
         <v>1.2</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1936,10 +1782,8 @@
       <c r="D79" t="n">
         <v>1.3</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1955,10 +1799,8 @@
       <c r="D80" t="n">
         <v>1.4</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1974,10 +1816,8 @@
       <c r="D81" t="n">
         <v>1.7</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1993,10 +1833,8 @@
       <c r="D82" t="n">
         <v>1</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2012,10 +1850,8 @@
       <c r="D83" t="n">
         <v>1.1</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2031,10 +1867,8 @@
       <c r="D84" t="n">
         <v>1</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2050,10 +1884,8 @@
       <c r="D85" t="n">
         <v>1.2</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2069,10 +1901,8 @@
       <c r="D86" t="n">
         <v>1.6</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2088,10 +1918,8 @@
       <c r="D87" t="n">
         <v>1.5</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2107,10 +1935,8 @@
       <c r="D88" t="n">
         <v>1.5</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2126,10 +1952,8 @@
       <c r="D89" t="n">
         <v>1.3</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2145,10 +1969,8 @@
       <c r="D90" t="n">
         <v>1.3</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2164,10 +1986,8 @@
       <c r="D91" t="n">
         <v>1.3</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2183,10 +2003,8 @@
       <c r="D92" t="n">
         <v>1.2</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2202,10 +2020,8 @@
       <c r="D93" t="n">
         <v>1.4</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2221,10 +2037,8 @@
       <c r="D94" t="n">
         <v>1.2</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2240,10 +2054,8 @@
       <c r="D95" t="n">
         <v>1</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2259,10 +2071,8 @@
       <c r="D96" t="n">
         <v>1.3</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2278,10 +2088,8 @@
       <c r="D97" t="n">
         <v>1.2</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2297,10 +2105,8 @@
       <c r="D98" t="n">
         <v>1.3</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2316,10 +2122,8 @@
       <c r="D99" t="n">
         <v>1.3</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2335,10 +2139,8 @@
       <c r="D100" t="n">
         <v>1.1</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2354,10 +2156,8 @@
       <c r="D101" t="n">
         <v>1.3</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2373,10 +2173,8 @@
       <c r="D102" t="n">
         <v>2.5</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2392,10 +2190,8 @@
       <c r="D103" t="n">
         <v>1.9</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2411,10 +2207,8 @@
       <c r="D104" t="n">
         <v>2.1</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2430,10 +2224,8 @@
       <c r="D105" t="n">
         <v>1.8</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2449,10 +2241,8 @@
       <c r="D106" t="n">
         <v>2.2</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2468,10 +2258,8 @@
       <c r="D107" t="n">
         <v>2.1</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2487,10 +2275,8 @@
       <c r="D108" t="n">
         <v>1.7</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2506,10 +2292,8 @@
       <c r="D109" t="n">
         <v>1.8</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2525,10 +2309,8 @@
       <c r="D110" t="n">
         <v>1.8</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2544,10 +2326,8 @@
       <c r="D111" t="n">
         <v>2.5</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2563,10 +2343,8 @@
       <c r="D112" t="n">
         <v>2</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2582,10 +2360,8 @@
       <c r="D113" t="n">
         <v>1.9</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2601,10 +2377,8 @@
       <c r="D114" t="n">
         <v>2.1</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2620,10 +2394,8 @@
       <c r="D115" t="n">
         <v>2</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2639,10 +2411,8 @@
       <c r="D116" t="n">
         <v>2.4</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2658,10 +2428,8 @@
       <c r="D117" t="n">
         <v>2.3</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2677,10 +2445,8 @@
       <c r="D118" t="n">
         <v>2.2</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2696,10 +2462,8 @@
       <c r="D119" t="n">
         <v>2</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2715,10 +2479,8 @@
       <c r="D120" t="n">
         <v>2</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2734,10 +2496,8 @@
       <c r="D121" t="n">
         <v>1.8</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2753,10 +2513,8 @@
       <c r="D122" t="n">
         <v>2.1</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2772,10 +2530,8 @@
       <c r="D123" t="n">
         <v>1.8</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2791,10 +2547,8 @@
       <c r="D124" t="n">
         <v>1.8</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2810,10 +2564,8 @@
       <c r="D125" t="n">
         <v>2.1</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2829,10 +2581,8 @@
       <c r="D126" t="n">
         <v>1.6</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2848,10 +2598,8 @@
       <c r="D127" t="n">
         <v>1.9</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2867,10 +2615,8 @@
       <c r="D128" t="n">
         <v>2</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2886,10 +2632,8 @@
       <c r="D129" t="n">
         <v>2.2</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2905,10 +2649,8 @@
       <c r="D130" t="n">
         <v>1.5</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2924,10 +2666,8 @@
       <c r="D131" t="n">
         <v>1.4</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2943,10 +2683,8 @@
       <c r="D132" t="n">
         <v>2.3</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2962,10 +2700,8 @@
       <c r="D133" t="n">
         <v>2.4</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2981,10 +2717,8 @@
       <c r="D134" t="n">
         <v>1.8</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3000,10 +2734,8 @@
       <c r="D135" t="n">
         <v>1.8</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3019,10 +2751,8 @@
       <c r="D136" t="n">
         <v>2.1</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3038,10 +2768,8 @@
       <c r="D137" t="n">
         <v>2.4</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E137" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3057,10 +2785,8 @@
       <c r="D138" t="n">
         <v>2.3</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E138" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3076,10 +2802,8 @@
       <c r="D139" t="n">
         <v>1.9</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3095,10 +2819,8 @@
       <c r="D140" t="n">
         <v>2.3</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3114,10 +2836,8 @@
       <c r="D141" t="n">
         <v>2.5</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3133,10 +2853,8 @@
       <c r="D142" t="n">
         <v>2.3</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3152,10 +2870,8 @@
       <c r="D143" t="n">
         <v>1.9</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3171,10 +2887,8 @@
       <c r="D144" t="n">
         <v>2</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E144" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3190,10 +2904,8 @@
       <c r="D145" t="n">
         <v>2.3</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E145" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3209,10 +2921,8 @@
       <c r="D146" t="n">
         <v>1.8</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3228,10 +2938,8 @@
       <c r="D147" t="n">
         <v>1.8</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E147" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3247,10 +2955,8 @@
       <c r="D148" t="n">
         <v>2.3</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3266,10 +2972,8 @@
       <c r="D149" t="n">
         <v>1.5</v>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3285,10 +2989,8 @@
       <c r="D150" t="n">
         <v>2.3</v>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E150" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3304,10 +3006,8 @@
       <c r="D151" t="n">
         <v>1.8</v>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="E151" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
